--- a/database/industries/khodro/khodro/income/yearly/rial.xlsx
+++ b/database/industries/khodro/khodro/income/yearly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\khodro\khodro\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khodro\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E67D803-EA7E-4C0D-B45A-DE7D465E83BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619FF967-BCC3-40B0-92C6-186AB64B09A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -67,7 +67,7 @@
     <t>1401-04-27 (9)</t>
   </si>
   <si>
-    <t>1401-10-30 (5)</t>
+    <t>1401-11-10 (6)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -592,14 +592,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -608,7 +608,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -630,7 +630,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -639,7 +639,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -670,7 +670,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -691,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -712,7 +712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -721,91 +721,91 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>8</v>
+        <v>314464917</v>
       </c>
       <c r="E11" s="13">
-        <v>2</v>
+        <v>204240922</v>
       </c>
       <c r="F11" s="13">
-        <v>3</v>
+        <v>333178431</v>
       </c>
       <c r="G11" s="13">
-        <v>3</v>
+        <v>670802591</v>
       </c>
       <c r="H11" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1098571317</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-7</v>
+        <v>-295803641</v>
       </c>
       <c r="E12" s="11">
-        <v>-2</v>
+        <v>-236178002</v>
       </c>
       <c r="F12" s="11">
-        <v>-3</v>
+        <v>-382085066</v>
       </c>
       <c r="G12" s="11">
-        <v>-3</v>
+        <v>-783067132</v>
       </c>
       <c r="H12" s="11">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+        <v>-1154669968</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>0</v>
+        <v>18661276</v>
       </c>
       <c r="E13" s="15">
-        <v>0</v>
+        <v>-31937080</v>
       </c>
       <c r="F13" s="15">
-        <v>0</v>
+        <v>-48906635</v>
       </c>
       <c r="G13" s="15">
-        <v>0</v>
+        <v>-112264541</v>
       </c>
       <c r="H13" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+        <v>-56098651</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>0</v>
+        <v>-14011258</v>
       </c>
       <c r="E14" s="11">
-        <v>0</v>
+        <v>-13319443</v>
       </c>
       <c r="F14" s="11">
-        <v>0</v>
+        <v>-16713152</v>
       </c>
       <c r="G14" s="11">
-        <v>0</v>
+        <v>-23061851</v>
       </c>
       <c r="H14" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+        <v>-39844462</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -813,272 +813,272 @@
       <c r="D15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>0</v>
+        <v>10024439</v>
       </c>
       <c r="E16" s="11">
-        <v>0</v>
+        <v>-25851824</v>
       </c>
       <c r="F16" s="11">
-        <v>0</v>
+        <v>-2424342</v>
       </c>
       <c r="G16" s="11">
-        <v>0</v>
+        <v>3895957</v>
       </c>
       <c r="H16" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+        <v>22889659</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>0</v>
+        <v>14674457</v>
       </c>
       <c r="E17" s="15">
-        <v>-1</v>
+        <v>-71108347</v>
       </c>
       <c r="F17" s="15">
-        <v>-1</v>
+        <v>-68044129</v>
       </c>
       <c r="G17" s="15">
-        <v>-1</v>
+        <v>-131430435</v>
       </c>
       <c r="H17" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+        <v>-73053454</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-1</v>
+        <v>-20374242</v>
       </c>
       <c r="E18" s="11">
-        <v>0</v>
+        <v>-27043622</v>
       </c>
       <c r="F18" s="11">
-        <v>0</v>
+        <v>-39521982</v>
       </c>
       <c r="G18" s="11">
-        <v>0</v>
+        <v>-38136520</v>
       </c>
       <c r="H18" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+        <v>-49863915</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>0</v>
+        <v>6574389</v>
       </c>
       <c r="E19" s="13">
-        <v>0</v>
+        <v>2087595</v>
       </c>
       <c r="F19" s="13">
-        <v>0</v>
+        <v>55149825</v>
       </c>
       <c r="G19" s="13">
-        <v>0</v>
+        <v>14516915</v>
       </c>
       <c r="H19" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+        <v>11980329</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>0</v>
+        <v>874604</v>
       </c>
       <c r="E20" s="17">
-        <v>-1</v>
+        <v>-96064374</v>
       </c>
       <c r="F20" s="17">
-        <v>0</v>
+        <v>-52416286</v>
       </c>
       <c r="G20" s="17">
-        <v>-1</v>
+        <v>-155050040</v>
       </c>
       <c r="H20" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+        <v>-110937040</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>21</v>
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0</v>
       </c>
       <c r="F21" s="13">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+        <v>-184470</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>0</v>
+        <v>874604</v>
       </c>
       <c r="E22" s="17">
-        <v>-1</v>
+        <v>-96064374</v>
       </c>
       <c r="F22" s="17">
-        <v>0</v>
+        <v>-52600756</v>
       </c>
       <c r="G22" s="17">
-        <v>-1</v>
+        <v>-155050040</v>
       </c>
       <c r="H22" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+        <v>-110937040</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>0</v>
+        <v>874604</v>
       </c>
       <c r="E24" s="17">
-        <v>-1</v>
+        <v>-96064374</v>
       </c>
       <c r="F24" s="17">
-        <v>0</v>
+        <v>-52600756</v>
       </c>
       <c r="G24" s="17">
-        <v>-1</v>
+        <v>-155050040</v>
       </c>
       <c r="H24" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>-110937040</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E25" s="13">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>21</v>
+        <v>-6279</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0</v>
       </c>
       <c r="G25" s="13">
-        <v>0</v>
+        <v>-514</v>
       </c>
       <c r="H25" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+        <v>-368</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>0</v>
+        <v>15300000</v>
       </c>
       <c r="E26" s="11">
-        <v>0</v>
+        <v>15300000</v>
       </c>
       <c r="F26" s="11">
-        <v>2</v>
+        <v>301656068</v>
       </c>
       <c r="G26" s="11">
-        <v>1</v>
+        <v>301656068</v>
       </c>
       <c r="H26" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+        <v>301656068</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27" s="13">
-        <v>0</v>
+        <v>-318</v>
       </c>
       <c r="F27" s="13">
-        <v>0</v>
+        <v>-174</v>
       </c>
       <c r="G27" s="13">
-        <v>0</v>
+        <v>-514</v>
       </c>
       <c r="H27" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+        <v>-368</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/khodro/khodro/income/yearly/rial.xlsx
+++ b/database/industries/khodro/khodro/income/yearly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khodro\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khodro\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619FF967-BCC3-40B0-92C6-186AB64B09A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55249791-1C26-424E-8B71-A9A248C9643A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -592,14 +592,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -608,7 +608,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -630,7 +630,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -639,7 +639,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -670,7 +670,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -691,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -712,7 +712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -721,7 +721,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -742,7 +742,7 @@
         <v>1098571317</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -763,7 +763,7 @@
         <v>-1154669968</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
@@ -784,7 +784,7 @@
         <v>-56098651</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -805,7 +805,7 @@
         <v>-39844462</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
@@ -847,7 +847,7 @@
         <v>22889659</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>23</v>
       </c>
@@ -868,7 +868,7 @@
         <v>-73053454</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
@@ -889,7 +889,7 @@
         <v>-49863915</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
@@ -910,7 +910,7 @@
         <v>11980329</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>26</v>
       </c>
@@ -931,7 +931,7 @@
         <v>-110937040</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>28</v>
       </c>
@@ -973,7 +973,7 @@
         <v>-110937040</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>29</v>
       </c>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>30</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>-110937040</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>31</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>-368</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>301656068</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>33</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>-368</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
